--- a/stock_historical_data/60m/INA.BO.xlsx
+++ b/stock_historical_data/60m/INA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>2</v>
       </c>
+      <c r="Q118" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,723 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45680.38541666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3150</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3081</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3086.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>23</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9</v>
+      </c>
+      <c r="K128" t="n">
+        <v>15</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>4</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45680.42708333334</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3125</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3077</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3113</v>
+      </c>
+      <c r="F129" t="n">
+        <v>950</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>23</v>
+      </c>
+      <c r="J129" t="n">
+        <v>10</v>
+      </c>
+      <c r="K129" t="n">
+        <v>15</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>4</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45680.46875</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3077.050048828125</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3134</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3077.050048828125</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3120</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>23</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11</v>
+      </c>
+      <c r="K130" t="n">
+        <v>15</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45680.51041666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3127.199951171875</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3137.949951171875</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3045.199951171875</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3054.949951171875</v>
+      </c>
+      <c r="F131" t="n">
+        <v>20350</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>23</v>
+      </c>
+      <c r="J131" t="n">
+        <v>12</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>4</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3049.949951171875</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3049.949951171875</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2930</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2990</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6750</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>23</v>
+      </c>
+      <c r="J132" t="n">
+        <v>13</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>4</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45680.59375</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2970</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2910.39990234375</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2930</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6150</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>23</v>
+      </c>
+      <c r="J133" t="n">
+        <v>14</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>4</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45680.63541666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2925</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2903.050048828125</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>23</v>
+      </c>
+      <c r="J134" t="n">
+        <v>15</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>4</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45681.38541666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>300</v>
+      </c>
+      <c r="C135" t="n">
+        <v>305</v>
+      </c>
+      <c r="D135" t="n">
+        <v>296.1499938964844</v>
+      </c>
+      <c r="E135" t="n">
+        <v>303.9500122070312</v>
+      </c>
+      <c r="F135" t="n">
+        <v>31000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>24</v>
+      </c>
+      <c r="J135" t="n">
+        <v>9</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>4</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B136" t="n">
+        <v>303.9500122070312</v>
+      </c>
+      <c r="C136" t="n">
+        <v>303.9500122070312</v>
+      </c>
+      <c r="D136" t="n">
+        <v>300</v>
+      </c>
+      <c r="E136" t="n">
+        <v>302.8500061035156</v>
+      </c>
+      <c r="F136" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>24</v>
+      </c>
+      <c r="J136" t="n">
+        <v>10</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>4</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B137" t="n">
+        <v>302</v>
+      </c>
+      <c r="C137" t="n">
+        <v>302.9500122070312</v>
+      </c>
+      <c r="D137" t="n">
+        <v>298</v>
+      </c>
+      <c r="E137" t="n">
+        <v>299</v>
+      </c>
+      <c r="F137" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>24</v>
+      </c>
+      <c r="J137" t="n">
+        <v>11</v>
+      </c>
+      <c r="K137" t="n">
+        <v>15</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>4</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>298</v>
+      </c>
+      <c r="C138" t="n">
+        <v>299.6000061035156</v>
+      </c>
+      <c r="D138" t="n">
+        <v>296.3999938964844</v>
+      </c>
+      <c r="E138" t="n">
+        <v>297</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>24</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>4</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B139" t="n">
+        <v>297</v>
+      </c>
+      <c r="C139" t="n">
+        <v>297</v>
+      </c>
+      <c r="D139" t="n">
+        <v>290.2000122070312</v>
+      </c>
+      <c r="E139" t="n">
+        <v>290.2000122070312</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>24</v>
+      </c>
+      <c r="J139" t="n">
+        <v>13</v>
+      </c>
+      <c r="K139" t="n">
+        <v>15</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>4</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B140" t="n">
+        <v>290.1499938964844</v>
+      </c>
+      <c r="C140" t="n">
+        <v>297</v>
+      </c>
+      <c r="D140" t="n">
+        <v>289</v>
+      </c>
+      <c r="E140" t="n">
+        <v>297</v>
+      </c>
+      <c r="F140" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>24</v>
+      </c>
+      <c r="J140" t="n">
+        <v>14</v>
+      </c>
+      <c r="K140" t="n">
+        <v>15</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>4</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>297</v>
+      </c>
+      <c r="C141" t="n">
+        <v>297.7999877929688</v>
+      </c>
+      <c r="D141" t="n">
+        <v>295.0499877929688</v>
+      </c>
+      <c r="E141" t="n">
+        <v>296.9500122070312</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>24</v>
+      </c>
+      <c r="J141" t="n">
+        <v>15</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>4</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/INA.BO.xlsx
+++ b/stock_historical_data/60m/INA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1640"/>
+  <dimension ref="A1:Q1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75371,6 +75371,636 @@
       <c r="P1640" t="inlineStr"/>
       <c r="Q1640" t="inlineStr"/>
     </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>259</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>264.7000122070312</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>225</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>240.1499938964844</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>171000</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1641" t="inlineStr"/>
+      <c r="O1641" t="inlineStr"/>
+      <c r="P1641" t="inlineStr"/>
+      <c r="Q1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>230.1000061035156</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>242.5</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>67000</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1642" t="inlineStr"/>
+      <c r="O1642" t="inlineStr"/>
+      <c r="P1642" t="inlineStr"/>
+      <c r="Q1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>242.8999938964844</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>247</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>231.25</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>247</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>69500</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1643" t="inlineStr"/>
+      <c r="O1643" t="inlineStr"/>
+      <c r="P1643" t="inlineStr"/>
+      <c r="Q1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>247</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>231.25</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>260</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>161000</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1644" t="inlineStr"/>
+      <c r="O1644" t="inlineStr"/>
+      <c r="P1644" t="inlineStr"/>
+      <c r="Q1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>255.25</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>259.2999877929688</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>248.4499969482422</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>255</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>21500</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1645" t="inlineStr"/>
+      <c r="O1645" t="inlineStr"/>
+      <c r="P1645" t="inlineStr"/>
+      <c r="Q1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>251</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>253.75</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>246.25</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>246.25</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1646" t="inlineStr"/>
+      <c r="O1646" t="inlineStr"/>
+      <c r="P1646" t="inlineStr"/>
+      <c r="Q1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>245.0500030517578</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>254</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>244</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>246.75</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>19000</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1647" t="inlineStr"/>
+      <c r="O1647" t="inlineStr"/>
+      <c r="P1647" t="inlineStr"/>
+      <c r="Q1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>248.0500030517578</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>276</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>248.0500030517578</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>270</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>124500</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1648" t="inlineStr"/>
+      <c r="O1648" t="inlineStr"/>
+      <c r="P1648" t="inlineStr"/>
+      <c r="Q1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>268</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>269.7999877929688</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>261</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>262.0499877929688</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>23000</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1649" t="inlineStr"/>
+      <c r="O1649" t="inlineStr"/>
+      <c r="P1649" t="inlineStr"/>
+      <c r="Q1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>263.8999938964844</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>270.4500122070312</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>262.0499877929688</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>267.0499877929688</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1650" t="inlineStr"/>
+      <c r="O1650" t="inlineStr"/>
+      <c r="P1650" t="inlineStr"/>
+      <c r="Q1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>270</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>273.6499938964844</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>269.3500061035156</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>269.3500061035156</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1651" t="inlineStr"/>
+      <c r="O1651" t="inlineStr"/>
+      <c r="P1651" t="inlineStr"/>
+      <c r="Q1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>268.0499877929688</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>269.75</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>267</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>269.7000122070312</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1652" t="inlineStr"/>
+      <c r="O1652" t="inlineStr"/>
+      <c r="P1652" t="inlineStr"/>
+      <c r="Q1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>270</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>270</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>271.0499877929688</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>34500</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1653" t="inlineStr"/>
+      <c r="O1653" t="inlineStr"/>
+      <c r="P1653" t="inlineStr"/>
+      <c r="Q1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>271.1000061035156</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>273.2000122070312</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>271.0499877929688</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>272.0499877929688</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>19500</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1654" t="inlineStr"/>
+      <c r="O1654" t="inlineStr"/>
+      <c r="P1654" t="inlineStr"/>
+      <c r="Q1654" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/INA.BO.xlsx
+++ b/stock_historical_data/60m/INA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1654"/>
+  <dimension ref="A1:Q1668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76001,6 +76001,636 @@
       <c r="P1654" t="inlineStr"/>
       <c r="Q1654" t="inlineStr"/>
     </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>280</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>288</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>274</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>278</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>62500</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1655" t="inlineStr"/>
+      <c r="O1655" t="inlineStr"/>
+      <c r="P1655" t="inlineStr"/>
+      <c r="Q1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>275.25</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1656" t="inlineStr"/>
+      <c r="O1656" t="inlineStr"/>
+      <c r="P1656" t="inlineStr"/>
+      <c r="Q1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>276.9500122070312</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>279</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>275</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>278</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1657" t="inlineStr"/>
+      <c r="O1657" t="inlineStr"/>
+      <c r="P1657" t="inlineStr"/>
+      <c r="Q1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>277.25</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>280</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>277</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>279</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1658" t="inlineStr"/>
+      <c r="O1658" t="inlineStr"/>
+      <c r="P1658" t="inlineStr"/>
+      <c r="Q1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>279.9500122070312</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>281.7000122070312</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>276</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>279.9500122070312</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1659" t="inlineStr"/>
+      <c r="O1659" t="inlineStr"/>
+      <c r="P1659" t="inlineStr"/>
+      <c r="Q1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>280</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>285.9500122070312</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>275.25</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>283</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>33500</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1660" t="inlineStr"/>
+      <c r="O1660" t="inlineStr"/>
+      <c r="P1660" t="inlineStr"/>
+      <c r="Q1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>288</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>284.5499877929688</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>24500</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1661" t="inlineStr"/>
+      <c r="O1661" t="inlineStr"/>
+      <c r="P1661" t="inlineStr"/>
+      <c r="Q1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>288</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>309</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>288</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>306.2999877929688</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1662" t="inlineStr"/>
+      <c r="O1662" t="inlineStr"/>
+      <c r="P1662" t="inlineStr"/>
+      <c r="Q1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>307.75</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>307.75</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>303.8500061035156</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>305</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>22500</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1663" t="inlineStr"/>
+      <c r="O1663" t="inlineStr"/>
+      <c r="P1663" t="inlineStr"/>
+      <c r="Q1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>305.9500122070312</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>319.7000122070312</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>305.9500122070312</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>315</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>119500</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1664" t="inlineStr"/>
+      <c r="O1664" t="inlineStr"/>
+      <c r="P1664" t="inlineStr"/>
+      <c r="Q1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>313.5499877929688</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>317.9500122070312</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>313.5499877929688</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>317.9500122070312</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1665" t="inlineStr"/>
+      <c r="O1665" t="inlineStr"/>
+      <c r="P1665" t="inlineStr"/>
+      <c r="Q1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>318</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>322</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1666" t="inlineStr"/>
+      <c r="O1666" t="inlineStr"/>
+      <c r="P1666" t="inlineStr"/>
+      <c r="Q1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>315.4500122070312</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>322.4500122070312</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>313</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>322.4500122070312</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>36000</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1667" t="inlineStr"/>
+      <c r="O1667" t="inlineStr"/>
+      <c r="P1667" t="inlineStr"/>
+      <c r="Q1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>320</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>324</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>319</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>29000</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1668" t="inlineStr"/>
+      <c r="O1668" t="inlineStr"/>
+      <c r="P1668" t="inlineStr"/>
+      <c r="Q1668" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/INA.BO.xlsx
+++ b/stock_historical_data/60m/INA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1668"/>
+  <dimension ref="A1:Q1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76631,6 +76631,681 @@
       <c r="P1668" t="inlineStr"/>
       <c r="Q1668" t="inlineStr"/>
     </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45689.63541666666</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>308.8500061035156</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>308.8500061035156</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>308.8500061035156</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>308.8500061035156</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1669" t="inlineStr"/>
+      <c r="O1669" t="inlineStr"/>
+      <c r="P1669" t="inlineStr"/>
+      <c r="Q1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>300</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>300.9500122070312</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>285.2999877929688</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>36500</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1670" t="inlineStr"/>
+      <c r="O1670" t="inlineStr"/>
+      <c r="P1670" t="inlineStr"/>
+      <c r="Q1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>293.9500122070312</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>300.3999938964844</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>292.6000061035156</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>300.3999938964844</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1671" t="inlineStr"/>
+      <c r="O1671" t="inlineStr"/>
+      <c r="P1671" t="inlineStr"/>
+      <c r="Q1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>304</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>302.3999938964844</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1672" t="inlineStr"/>
+      <c r="O1672" t="inlineStr"/>
+      <c r="P1672" t="inlineStr"/>
+      <c r="Q1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45691.51041666666</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>302.7999877929688</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>303.0499877929688</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>297</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>298</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1673" t="inlineStr"/>
+      <c r="O1673" t="inlineStr"/>
+      <c r="P1673" t="inlineStr"/>
+      <c r="Q1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>298.1000061035156</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>298.1499938964844</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>298</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>298</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1674" t="inlineStr"/>
+      <c r="O1674" t="inlineStr"/>
+      <c r="P1674" t="inlineStr"/>
+      <c r="Q1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45691.59375</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>300</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>295.2999877929688</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>296.3999938964844</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>19500</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1675" t="inlineStr"/>
+      <c r="O1675" t="inlineStr"/>
+      <c r="P1675" t="inlineStr"/>
+      <c r="Q1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>295.1000061035156</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>295.1000061035156</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>290.1000061035156</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>293.2000122070312</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1676" t="inlineStr"/>
+      <c r="O1676" t="inlineStr"/>
+      <c r="P1676" t="inlineStr"/>
+      <c r="Q1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45692.38541666666</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>299.7999877929688</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>295.0499877929688</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>302</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1677" t="inlineStr"/>
+      <c r="O1677" t="inlineStr"/>
+      <c r="P1677" t="inlineStr"/>
+      <c r="Q1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>301</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>301</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>295</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1678" t="inlineStr"/>
+      <c r="O1678" t="inlineStr"/>
+      <c r="P1678" t="inlineStr"/>
+      <c r="Q1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45692.46875</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>293.5499877929688</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>297.7000122070312</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>293.5499877929688</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>297.7000122070312</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1679" t="inlineStr"/>
+      <c r="O1679" t="inlineStr"/>
+      <c r="P1679" t="inlineStr"/>
+      <c r="Q1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45692.51041666666</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>291.2000122070312</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>292.75</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1680" t="inlineStr"/>
+      <c r="O1680" t="inlineStr"/>
+      <c r="P1680" t="inlineStr"/>
+      <c r="Q1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45692.55208333334</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>295.5499877929688</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>293.1000061035156</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>293.1000061035156</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1681" t="inlineStr"/>
+      <c r="O1681" t="inlineStr"/>
+      <c r="P1681" t="inlineStr"/>
+      <c r="Q1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>294</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>296.9500122070312</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>294</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1682" t="inlineStr"/>
+      <c r="O1682" t="inlineStr"/>
+      <c r="P1682" t="inlineStr"/>
+      <c r="Q1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>296</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>294</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>294.6499938964844</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1683" t="inlineStr"/>
+      <c r="O1683" t="inlineStr"/>
+      <c r="P1683" t="inlineStr"/>
+      <c r="Q1683" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/INA.BO.xlsx
+++ b/stock_historical_data/60m/INA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1683"/>
+  <dimension ref="A1:Q1704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77306,6 +77306,951 @@
       <c r="P1683" t="inlineStr"/>
       <c r="Q1683" t="inlineStr"/>
     </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>295</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>301.8999938964844</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>295</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>23500</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1684" t="inlineStr"/>
+      <c r="O1684" t="inlineStr"/>
+      <c r="P1684" t="inlineStr"/>
+      <c r="Q1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>295</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>297</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>290</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>291</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>21500</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1685" t="inlineStr"/>
+      <c r="O1685" t="inlineStr"/>
+      <c r="P1685" t="inlineStr"/>
+      <c r="Q1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>292</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>293.9500122070312</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>292.4500122070312</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>13500</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1686" t="inlineStr"/>
+      <c r="O1686" t="inlineStr"/>
+      <c r="P1686" t="inlineStr"/>
+      <c r="Q1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>292.6499938964844</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>290.25</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1687" t="inlineStr"/>
+      <c r="O1687" t="inlineStr"/>
+      <c r="P1687" t="inlineStr"/>
+      <c r="Q1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>288</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>290.2999877929688</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>285</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1688" t="inlineStr"/>
+      <c r="O1688" t="inlineStr"/>
+      <c r="P1688" t="inlineStr"/>
+      <c r="Q1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>288.3500061035156</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1689" t="inlineStr"/>
+      <c r="O1689" t="inlineStr"/>
+      <c r="P1689" t="inlineStr"/>
+      <c r="Q1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>286.8999938964844</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>287.2000122070312</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>286</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>286.4500122070312</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1690" t="inlineStr"/>
+      <c r="O1690" t="inlineStr"/>
+      <c r="P1690" t="inlineStr"/>
+      <c r="Q1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>290.7999877929688</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>290.7999877929688</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>278</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>278</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1691" t="inlineStr"/>
+      <c r="O1691" t="inlineStr"/>
+      <c r="P1691" t="inlineStr"/>
+      <c r="Q1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>278.75</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>283.4500122070312</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>275.1000061035156</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>279.3500061035156</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>24500</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1692" t="inlineStr"/>
+      <c r="O1692" t="inlineStr"/>
+      <c r="P1692" t="inlineStr"/>
+      <c r="Q1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>278</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>281</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>277</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>281</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>14500</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1693" t="inlineStr"/>
+      <c r="O1693" t="inlineStr"/>
+      <c r="P1693" t="inlineStr"/>
+      <c r="Q1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>281</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>284.1000061035156</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>279</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1694" t="inlineStr"/>
+      <c r="O1694" t="inlineStr"/>
+      <c r="P1694" t="inlineStr"/>
+      <c r="Q1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>282</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>284.25</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>279</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>279</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1695" t="inlineStr"/>
+      <c r="O1695" t="inlineStr"/>
+      <c r="P1695" t="inlineStr"/>
+      <c r="Q1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>285</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1696" t="inlineStr"/>
+      <c r="O1696" t="inlineStr"/>
+      <c r="P1696" t="inlineStr"/>
+      <c r="Q1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>281.4500122070312</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>284.9500122070312</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>281.1000061035156</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1697" t="inlineStr"/>
+      <c r="O1697" t="inlineStr"/>
+      <c r="P1697" t="inlineStr"/>
+      <c r="Q1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>270.1499938964844</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>269</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>281.1000061035156</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>60500</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1698" t="inlineStr"/>
+      <c r="O1698" t="inlineStr"/>
+      <c r="P1698" t="inlineStr"/>
+      <c r="Q1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>281.8999938964844</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>286.8500061035156</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>281</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>283.5499877929688</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1699" t="inlineStr"/>
+      <c r="O1699" t="inlineStr"/>
+      <c r="P1699" t="inlineStr"/>
+      <c r="Q1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>283.6000061035156</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>286.0499877929688</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>280.1000061035156</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>281.9500122070312</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1700" t="inlineStr"/>
+      <c r="O1700" t="inlineStr"/>
+      <c r="P1700" t="inlineStr"/>
+      <c r="Q1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>282</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>282</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1701" t="inlineStr"/>
+      <c r="O1701" t="inlineStr"/>
+      <c r="P1701" t="inlineStr"/>
+      <c r="Q1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>280.6499938964844</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>275.2999877929688</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>59500</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1702" t="inlineStr"/>
+      <c r="O1702" t="inlineStr"/>
+      <c r="P1702" t="inlineStr"/>
+      <c r="Q1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>301</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>301</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>289.1499938964844</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>294.8999938964844</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1703" t="inlineStr"/>
+      <c r="O1703" t="inlineStr"/>
+      <c r="P1703" t="inlineStr"/>
+      <c r="Q1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>291.2000122070312</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>294.6000061035156</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>289</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1704" t="inlineStr"/>
+      <c r="O1704" t="inlineStr"/>
+      <c r="P1704" t="inlineStr"/>
+      <c r="Q1704" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/INA.BO.xlsx
+++ b/stock_historical_data/60m/INA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1704"/>
+  <dimension ref="A1:Q1718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78251,6 +78251,636 @@
       <c r="P1704" t="inlineStr"/>
       <c r="Q1704" t="inlineStr"/>
     </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>298.3500061035156</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>298.3500061035156</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>285</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>287.6000061035156</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1705" t="inlineStr"/>
+      <c r="O1705" t="inlineStr"/>
+      <c r="P1705" t="inlineStr"/>
+      <c r="Q1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>288</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>290</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>285.0499877929688</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>288.6000061035156</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1706" t="inlineStr"/>
+      <c r="O1706" t="inlineStr"/>
+      <c r="P1706" t="inlineStr"/>
+      <c r="Q1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>288</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>290</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>286</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>286.0499877929688</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1707" t="inlineStr"/>
+      <c r="O1707" t="inlineStr"/>
+      <c r="P1707" t="inlineStr"/>
+      <c r="Q1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>289</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1708" t="inlineStr"/>
+      <c r="O1708" t="inlineStr"/>
+      <c r="P1708" t="inlineStr"/>
+      <c r="Q1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>283</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>288</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>283</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>286.1000061035156</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1709" t="inlineStr"/>
+      <c r="O1709" t="inlineStr"/>
+      <c r="P1709" t="inlineStr"/>
+      <c r="Q1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>286.2000122070312</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>282</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>283</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1710" t="inlineStr"/>
+      <c r="O1710" t="inlineStr"/>
+      <c r="P1710" t="inlineStr"/>
+      <c r="Q1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1711" t="inlineStr"/>
+      <c r="O1711" t="inlineStr"/>
+      <c r="P1711" t="inlineStr"/>
+      <c r="Q1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>288</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>265</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>266</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1712" t="inlineStr"/>
+      <c r="O1712" t="inlineStr"/>
+      <c r="P1712" t="inlineStr"/>
+      <c r="Q1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>265</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>269</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>263.2999877929688</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>264</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>43000</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1713" t="inlineStr"/>
+      <c r="O1713" t="inlineStr"/>
+      <c r="P1713" t="inlineStr"/>
+      <c r="Q1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>266.7999877929688</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>267.8999938964844</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>263</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>263.2999877929688</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>34500</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1714" t="inlineStr"/>
+      <c r="O1714" t="inlineStr"/>
+      <c r="P1714" t="inlineStr"/>
+      <c r="Q1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>263</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>266.3999938964844</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>264.9500122070312</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>21500</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1715" t="inlineStr"/>
+      <c r="O1715" t="inlineStr"/>
+      <c r="P1715" t="inlineStr"/>
+      <c r="Q1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>264.0499877929688</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>258.0499877929688</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1716" t="inlineStr"/>
+      <c r="O1716" t="inlineStr"/>
+      <c r="P1716" t="inlineStr"/>
+      <c r="Q1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>265</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>263.2999877929688</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>43500</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1717" t="inlineStr"/>
+      <c r="O1717" t="inlineStr"/>
+      <c r="P1717" t="inlineStr"/>
+      <c r="Q1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>263</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>266.7000122070312</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>261.6000061035156</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>263.25</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1718" t="inlineStr"/>
+      <c r="O1718" t="inlineStr"/>
+      <c r="P1718" t="inlineStr"/>
+      <c r="Q1718" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/INA.BO.xlsx
+++ b/stock_historical_data/60m/INA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1718"/>
+  <dimension ref="A1:Q1732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78881,6 +78881,636 @@
       <c r="P1718" t="inlineStr"/>
       <c r="Q1718" t="inlineStr"/>
     </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>259.25</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>241</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>246.1000061035156</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1719" t="inlineStr"/>
+      <c r="O1719" t="inlineStr"/>
+      <c r="P1719" t="inlineStr"/>
+      <c r="Q1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>247.8999938964844</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>252</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>245.5500030517578</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>251.75</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>29000</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1720" t="inlineStr"/>
+      <c r="O1720" t="inlineStr"/>
+      <c r="P1720" t="inlineStr"/>
+      <c r="Q1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>251.75</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>259</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>251.6499938964844</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>256</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>42000</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1721" t="inlineStr"/>
+      <c r="O1721" t="inlineStr"/>
+      <c r="P1721" t="inlineStr"/>
+      <c r="Q1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>257.7999877929688</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>264</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>253.0500030517578</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>264</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1722" t="inlineStr"/>
+      <c r="O1722" t="inlineStr"/>
+      <c r="P1722" t="inlineStr"/>
+      <c r="Q1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>262</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>270.9500122070312</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>43500</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1723" t="inlineStr"/>
+      <c r="O1723" t="inlineStr"/>
+      <c r="P1723" t="inlineStr"/>
+      <c r="Q1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>257.6499938964844</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>257.1000061035156</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1724" t="inlineStr"/>
+      <c r="O1724" t="inlineStr"/>
+      <c r="P1724" t="inlineStr"/>
+      <c r="Q1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>262.75</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>262.75</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>258</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1725" t="inlineStr"/>
+      <c r="O1725" t="inlineStr"/>
+      <c r="P1725" t="inlineStr"/>
+      <c r="Q1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>272</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>275.8500061035156</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>267</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>274</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1726" t="inlineStr"/>
+      <c r="O1726" t="inlineStr"/>
+      <c r="P1726" t="inlineStr"/>
+      <c r="Q1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>274</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>274</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>270.2999877929688</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1727" t="inlineStr"/>
+      <c r="O1727" t="inlineStr"/>
+      <c r="P1727" t="inlineStr"/>
+      <c r="Q1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>272.6499938964844</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>270.1499938964844</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>271</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1728" t="inlineStr"/>
+      <c r="O1728" t="inlineStr"/>
+      <c r="P1728" t="inlineStr"/>
+      <c r="Q1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>271</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>272.7999877929688</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>270.1000061035156</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>270.1000061035156</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1729" t="inlineStr"/>
+      <c r="O1729" t="inlineStr"/>
+      <c r="P1729" t="inlineStr"/>
+      <c r="Q1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>270.1000061035156</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>270.7000122070312</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>263.2000122070312</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1730" t="inlineStr"/>
+      <c r="O1730" t="inlineStr"/>
+      <c r="P1730" t="inlineStr"/>
+      <c r="Q1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>264.8999938964844</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>264</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>266.1499938964844</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1731" t="inlineStr"/>
+      <c r="O1731" t="inlineStr"/>
+      <c r="P1731" t="inlineStr"/>
+      <c r="Q1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>266.1499938964844</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>269.1000061035156</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>266.0499877929688</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>13500</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1732" t="inlineStr"/>
+      <c r="O1732" t="inlineStr"/>
+      <c r="P1732" t="inlineStr"/>
+      <c r="Q1732" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
